--- a/backend/templates/DateSheetTemplate.xlsx
+++ b/backend/templates/DateSheetTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Desktop\IP\IP-PhD-Management-Portal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05BC0E5-89FB-4607-87F6-44BC2F93FB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D773576-3914-48E8-8248-581362A85656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,11 +76,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,11 +362,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -379,40 +380,40 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <dataValidations count="3">
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Incorrect Format: No Special Characters allowed other than &quot;/&quot;!" promptTitle="Enter Course Code/Codes" prompt="Multiple Course Codes should be &quot;/&quot; Separated Only!" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>AND(ISNUMBER(SUMPRODUCT(SEARCH(MID(E2,ROW(INDIRECT("1:"&amp;LEN(E2))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ/"))),ISERR(FIND(" ",E2)),ISERR(FIND(",",E2)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Incorrect Format: No Special Characters are allowed other than &quot;/&quot;." promptTitle="Enter Room Nos." prompt="Multple Room Nos. should be &quot;/&quot; Separated!" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>AND(ISNUMBER(SUMPRODUCT(SEARCH(MID(G1,ROW(INDIRECT("1:"&amp;LEN(G1))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ/"))),ISERR(FIND(" ",G1)),ISERR(FIND(",",G1)))</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Incorrect Format: No Special Characters are allowed other than &quot;/&quot;." promptTitle="Enter Room Nos." prompt="1. Alphabets and Numbers only._x000a_2. Multple Room Nos. should be &quot;,&quot; Separated._x000a_3. No Space is allowed._x000a_4. Ex: C101,C102,LHC" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>AND(ISNUMBER(SUMPRODUCT(SEARCH(MID(G2,ROW(INDIRECT("1:"&amp;LEN(G2))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ,"))),ISERR(FIND(" ",G2)),ISERR(FIND("/",G2)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" errorTitle="Invalid Day" error="Day must be a valid day of the week" sqref="B2:B500" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry: Format" error="1. No Special Characters allowed other than &quot;/&quot;._x000a_2. No Space is allowed." promptTitle="Enter Course Code/Codes" prompt="1. Alphabet and Numbers only._x000a_2. Multiple Course Codes should be &quot;/&quot; Separated Only_x000a_3. No Space is Allowed._x000a_4. Ex: CSE101/CSE102/CSE103" sqref="E2:E1048576" xr:uid="{47017735-68FF-46A3-B15B-9516CF22D362}">
+      <formula1>AND(ISNUMBER(SUMPRODUCT(SEARCH(MID(E2,ROW(INDIRECT("1:"&amp;LEN(E2))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ/"))),ISERR(FIND(" ",E2)),ISERR(FIND(",",E2)))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/templates/DateSheetTemplate.xlsx
+++ b/backend/templates/DateSheetTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Desktop\IP\IP-PhD-Management-Portal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D773576-3914-48E8-8248-581362A85656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08AB93B-E8AF-4D4C-B7B5-3B60E912AB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,12 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,7 +365,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,26 +379,26 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/backend/templates/DateSheetTemplate.xlsx
+++ b/backend/templates/DateSheetTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Desktop\IP\IP-PhD-Management-Portal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08AB93B-E8AF-4D4C-B7B5-3B60E912AB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D926E4-D0BB-4F7C-948A-DC880176FE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Room No.</t>
+  </si>
+  <si>
+    <t>Building</t>
   </si>
 </sst>
 </file>
@@ -361,11 +364,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -379,7 +382,7 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,6 +403,9 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
